--- a/db/db-challenge2/データベース定義書.xlsx
+++ b/db/db-challenge2/データベース定義書.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23028"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{61E5856F-4984-4021-AA9E-D168B457B4CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{74AEDA3A-4D69-4ECF-A92A-97A3D580C31B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11925" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11925" firstSheet="4" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="改訂履歴" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="124">
   <si>
     <t>改定履歴</t>
   </si>
@@ -609,6 +609,9 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
+    <t>users_informations</t>
+  </si>
+  <si>
     <t>ユーザーの情報に関するテーブル</t>
   </si>
   <si>
@@ -681,6 +684,9 @@
     <t>updated_at</t>
   </si>
   <si>
+    <t>chatrooms</t>
+  </si>
+  <si>
     <t>チャットルームの情報に関するテーブル</t>
   </si>
   <si>
@@ -702,7 +708,7 @@
     <t>ファイル送信フラグ</t>
   </si>
   <si>
-    <t>file_transmission_flag</t>
+    <t>is_file_transmission</t>
   </si>
   <si>
     <t>1:ファイル送信不可</t>
@@ -711,7 +717,7 @@
     <t>ダイレクトチャットフラグ</t>
   </si>
   <si>
-    <t>direct_chat_flag</t>
+    <t>is_direct_chat</t>
   </si>
   <si>
     <t>1:ダイレクトチャットになる</t>
@@ -732,6 +738,9 @@
     <t>update_user</t>
   </si>
   <si>
+    <t>participants</t>
+  </si>
+  <si>
     <t>誰がどのチャットルームに入っているかを管理するテーブル</t>
   </si>
   <si>
@@ -745,6 +754,9 @@
   </si>
   <si>
     <t>participation_date</t>
+  </si>
+  <si>
+    <t>posts</t>
   </si>
   <si>
     <t>投稿(チャットの中)に関するテーブル</t>
@@ -763,6 +775,9 @@
   </si>
   <si>
     <t>file_name</t>
+  </si>
+  <si>
+    <t>tasks</t>
   </si>
   <si>
     <t>チャット内のタスクに関するテーブル</t>
@@ -798,7 +813,7 @@
     <t>完了判断フラグ</t>
   </si>
   <si>
-    <t>complete_flag</t>
+    <t>is_complete</t>
   </si>
   <si>
     <t>1:完了済み</t>
@@ -30923,8 +30938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7931EAEF-BEC1-4AF8-9632-042B72D5B24D}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
@@ -30945,7 +30960,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="53" t="s">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="C1" s="53"/>
       <c r="D1" s="53"/>
@@ -30962,7 +30977,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="53" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C2" s="53"/>
       <c r="D2" s="53"/>
@@ -31029,13 +31044,13 @@
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F5" s="16">
         <v>11</v>
@@ -31045,7 +31060,7 @@
         <v>30</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J5" s="13" t="s">
         <v>32</v>
@@ -31059,13 +31074,13 @@
         <v>2</v>
       </c>
       <c r="C6" s="48" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D6" s="48" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F6" s="16">
         <v>100</v>
@@ -31085,13 +31100,13 @@
         <v>3</v>
       </c>
       <c r="C7" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="13" t="s">
         <v>62</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>61</v>
       </c>
       <c r="F7" s="16">
         <v>100</v>
@@ -31111,13 +31126,13 @@
         <v>4</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F8" s="16">
         <v>100</v>
@@ -31137,13 +31152,13 @@
         <v>5</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F9" s="16">
         <v>1000</v>
@@ -31161,13 +31176,13 @@
         <v>6</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F10" s="16">
         <v>13</v>
@@ -31185,13 +31200,13 @@
         <v>7</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F11" s="16">
         <v>13</v>
@@ -31209,10 +31224,10 @@
         <v>8</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E12" s="13" t="s">
         <v>41</v>
@@ -31239,10 +31254,10 @@
         <v>9</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E13" s="13" t="s">
         <v>50</v>
@@ -31263,10 +31278,10 @@
         <v>10</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E14" s="13" t="s">
         <v>50</v>
@@ -31327,7 +31342,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
@@ -31350,7 +31365,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="53" t="s">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="C1" s="53"/>
       <c r="D1" s="53"/>
@@ -31367,7 +31382,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="53" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C2" s="53"/>
       <c r="D2" s="53"/>
@@ -31434,13 +31449,13 @@
         <v>1</v>
       </c>
       <c r="C5" s="48" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D5" s="48" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F5" s="16">
         <v>11</v>
@@ -31450,7 +31465,7 @@
         <v>30</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J5" s="13" t="s">
         <v>32</v>
@@ -31464,13 +31479,13 @@
         <v>2</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F6" s="16">
         <v>100</v>
@@ -31490,13 +31505,13 @@
         <v>3</v>
       </c>
       <c r="C7" s="48" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F7" s="48">
         <v>1000</v>
@@ -31514,10 +31529,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>41</v>
@@ -31534,7 +31549,7 @@
       <c r="I8" s="20"/>
       <c r="J8" s="20"/>
       <c r="K8" s="20" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -31544,10 +31559,10 @@
         <v>5</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E9" s="13" t="s">
         <v>41</v>
@@ -31564,7 +31579,7 @@
       <c r="I9" s="20"/>
       <c r="J9" s="20"/>
       <c r="K9" s="20" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -31574,10 +31589,10 @@
         <v>6</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E10" s="13" t="s">
         <v>41</v>
@@ -31604,13 +31619,13 @@
         <v>7</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F11" s="16">
         <v>11</v>
@@ -31622,7 +31637,7 @@
       <c r="I11" s="20"/>
       <c r="J11" s="48"/>
       <c r="K11" s="20" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -31632,13 +31647,13 @@
         <v>8</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F12" s="16">
         <v>11</v>
@@ -31650,7 +31665,7 @@
       <c r="I12" s="20"/>
       <c r="J12" s="20"/>
       <c r="K12" s="20" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -31660,10 +31675,10 @@
         <v>9</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E13" s="13" t="s">
         <v>50</v>
@@ -31684,10 +31699,10 @@
         <v>10</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E14" s="13" t="s">
         <v>50</v>
@@ -31748,7 +31763,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
@@ -31769,7 +31784,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="53" t="s">
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="C1" s="53"/>
       <c r="D1" s="53"/>
@@ -31786,7 +31801,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="53" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C2" s="53"/>
       <c r="D2" s="53"/>
@@ -31853,13 +31868,13 @@
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F5" s="16">
         <v>11</v>
@@ -31869,11 +31884,11 @@
         <v>30</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J5" s="13"/>
       <c r="K5" s="20" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -31883,13 +31898,13 @@
         <v>2</v>
       </c>
       <c r="C6" s="48" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D6" s="48" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F6" s="16">
         <v>11</v>
@@ -31899,11 +31914,11 @@
         <v>30</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J6" s="48"/>
       <c r="K6" s="20" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -31913,10 +31928,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>50</v>
@@ -32089,7 +32104,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
@@ -32113,7 +32128,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="53" t="s">
-        <v>11</v>
+        <v>103</v>
       </c>
       <c r="C1" s="53"/>
       <c r="D1" s="53"/>
@@ -32130,7 +32145,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="53" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C2" s="53"/>
       <c r="D2" s="53"/>
@@ -32197,13 +32212,13 @@
         <v>1</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F5" s="16">
         <v>11</v>
@@ -32213,7 +32228,7 @@
         <v>30</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J5" s="13" t="s">
         <v>32</v>
@@ -32227,13 +32242,13 @@
         <v>2</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F6" s="16">
         <v>11</v>
@@ -32245,7 +32260,7 @@
       <c r="I6" s="13"/>
       <c r="J6" s="13"/>
       <c r="K6" s="20" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -32255,13 +32270,13 @@
         <v>3</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F7" s="16">
         <v>1000</v>
@@ -32281,13 +32296,13 @@
         <v>4</v>
       </c>
       <c r="C8" s="48" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F8" s="48">
         <v>100</v>
@@ -32305,10 +32320,10 @@
         <v>5</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E9" s="13" t="s">
         <v>41</v>
@@ -32335,13 +32350,13 @@
         <v>6</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F10" s="16">
         <v>11</v>
@@ -32353,7 +32368,7 @@
       <c r="I10" s="20"/>
       <c r="J10" s="48"/>
       <c r="K10" s="20" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -32363,13 +32378,13 @@
         <v>7</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F11" s="16">
         <v>11</v>
@@ -32381,7 +32396,7 @@
       <c r="I11" s="20"/>
       <c r="J11" s="20"/>
       <c r="K11" s="20" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -32391,10 +32406,10 @@
         <v>8</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E12" s="13" t="s">
         <v>50</v>
@@ -32415,10 +32430,10 @@
         <v>9</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E13" s="13" t="s">
         <v>50</v>
@@ -32495,7 +32510,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
@@ -32519,7 +32534,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="53" t="s">
-        <v>12</v>
+        <v>110</v>
       </c>
       <c r="C1" s="53"/>
       <c r="D1" s="53"/>
@@ -32537,7 +32552,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="53" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C2" s="53"/>
       <c r="D2" s="53"/>
@@ -32607,13 +32622,13 @@
         <v>1</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F5" s="16">
         <v>11</v>
@@ -32623,7 +32638,7 @@
         <v>30</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J5" s="13" t="s">
         <v>32</v>
@@ -32638,13 +32653,13 @@
         <v>2</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F6" s="16">
         <v>11</v>
@@ -32656,7 +32671,7 @@
       <c r="I6" s="13"/>
       <c r="J6" s="13"/>
       <c r="K6" s="20" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L6" s="48"/>
     </row>
@@ -32667,13 +32682,13 @@
         <v>3</v>
       </c>
       <c r="C7" s="37" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="D7" s="38" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E7" s="39" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="F7" s="40">
         <v>1000</v>
@@ -32694,13 +32709,13 @@
         <v>4</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E8" s="28" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F8" s="44">
         <v>11</v>
@@ -32712,7 +32727,7 @@
       <c r="I8" s="26"/>
       <c r="J8" s="46"/>
       <c r="K8" s="26" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L8" s="48"/>
     </row>
@@ -32723,13 +32738,13 @@
         <v>5</v>
       </c>
       <c r="C9" s="43" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E9" s="32" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F9" s="45"/>
       <c r="G9" s="20"/>
@@ -32746,10 +32761,10 @@
         <v>6</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E10" s="32" t="s">
         <v>41</v>
@@ -32766,7 +32781,7 @@
       <c r="I10" s="43"/>
       <c r="J10" s="26"/>
       <c r="K10" s="26" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="L10" s="48"/>
     </row>
@@ -32777,10 +32792,10 @@
         <v>7</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E11" s="32" t="s">
         <v>41</v>
@@ -32808,13 +32823,13 @@
         <v>8</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F12" s="16">
         <v>11</v>
@@ -32826,7 +32841,7 @@
       <c r="I12" s="20"/>
       <c r="J12" s="48"/>
       <c r="K12" s="20" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L12" s="48"/>
     </row>
@@ -32837,13 +32852,13 @@
         <v>9</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F13" s="16">
         <v>11</v>
@@ -32855,7 +32870,7 @@
       <c r="I13" s="20"/>
       <c r="J13" s="20"/>
       <c r="K13" s="20" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L13" s="48"/>
     </row>
@@ -32866,10 +32881,10 @@
         <v>10</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E14" s="13" t="s">
         <v>50</v>
@@ -32891,10 +32906,10 @@
         <v>11</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E15" s="13" t="s">
         <v>50</v>

--- a/db/db-challenge2/データベース定義書.xlsx
+++ b/db/db-challenge2/データベース定義書.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23028"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{74AEDA3A-4D69-4ECF-A92A-97A3D580C31B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{604EE86C-07ED-4D52-B641-46C04D244864}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11925" firstSheet="4" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11925" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="改訂履歴" sheetId="1" r:id="rId1"/>
@@ -708,7 +708,7 @@
     <t>ファイル送信フラグ</t>
   </si>
   <si>
-    <t>is_file_transmission</t>
+    <t>is_file_send</t>
   </si>
   <si>
     <t>1:ファイル送信不可</t>
@@ -798,7 +798,7 @@
     <t>タスク担当者</t>
   </si>
   <si>
-    <t>person_in_charge_id</t>
+    <t>handle_person</t>
   </si>
   <si>
     <t>期限</t>
@@ -30938,8 +30938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7931EAEF-BEC1-4AF8-9632-042B72D5B24D}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
@@ -31342,7 +31342,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
@@ -32510,7 +32510,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>

--- a/db/db-challenge2/データベース定義書.xlsx
+++ b/db/db-challenge2/データベース定義書.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23028"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{604EE86C-07ED-4D52-B641-46C04D244864}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{96C0C56F-5B68-44D8-878E-0031EB28CBB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11925" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11925" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="改訂履歴" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="125">
   <si>
     <t>改定履歴</t>
   </si>
@@ -708,7 +708,7 @@
     <t>ファイル送信フラグ</t>
   </si>
   <si>
-    <t>is_file_send</t>
+    <t>is_file_transmission_permission</t>
   </si>
   <si>
     <t>1:ファイル送信不可</t>
@@ -729,7 +729,7 @@
     <t>create_user</t>
   </si>
   <si>
-    <t>外部キー</t>
+    <t>FK</t>
   </si>
   <si>
     <t>更新者id</t>
@@ -745,6 +745,9 @@
   </si>
   <si>
     <t>user_id</t>
+  </si>
+  <si>
+    <t>PK/FK</t>
   </si>
   <si>
     <t>chatroom_id</t>
@@ -31341,8 +31344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B03EB1C5-6F13-414B-8AF4-B4A35031AAB7}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
@@ -31350,7 +31353,7 @@
     <col min="1" max="1" width="14.42578125" style="25"/>
     <col min="2" max="2" width="3.140625" style="25" customWidth="1"/>
     <col min="3" max="3" width="23.28515625" style="25" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.42578125" style="25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="25"/>
     <col min="6" max="6" width="5.28515625" style="25" customWidth="1"/>
     <col min="7" max="7" width="12.28515625" style="25" customWidth="1"/>
@@ -31634,11 +31637,11 @@
       <c r="H11" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="20"/>
+      <c r="I11" s="20" t="s">
+        <v>94</v>
+      </c>
       <c r="J11" s="48"/>
-      <c r="K11" s="20" t="s">
-        <v>94</v>
-      </c>
+      <c r="K11" s="20"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="48"/>
@@ -31662,11 +31665,11 @@
       <c r="H12" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="I12" s="20"/>
+      <c r="I12" s="20" t="s">
+        <v>94</v>
+      </c>
       <c r="J12" s="20"/>
-      <c r="K12" s="20" t="s">
-        <v>94</v>
-      </c>
+      <c r="K12" s="20"/>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="48"/>
@@ -31763,7 +31766,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
@@ -31884,12 +31887,10 @@
         <v>30</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="J5" s="13"/>
-      <c r="K5" s="20" t="s">
-        <v>94</v>
-      </c>
+      <c r="K5" s="20"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="48"/>
@@ -31901,7 +31902,7 @@
         <v>81</v>
       </c>
       <c r="D6" s="48" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E6" s="13" t="s">
         <v>58</v>
@@ -31914,12 +31915,10 @@
         <v>30</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="J6" s="48"/>
-      <c r="K6" s="20" t="s">
-        <v>94</v>
-      </c>
+      <c r="K6" s="20"/>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="48"/>
@@ -31928,10 +31927,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>50</v>
@@ -32104,7 +32103,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1"/>
+      <selection activeCell="K5" sqref="K5:K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
@@ -32128,7 +32127,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="53" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C1" s="53"/>
       <c r="D1" s="53"/>
@@ -32145,7 +32144,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="53" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C2" s="53"/>
       <c r="D2" s="53"/>
@@ -32212,7 +32211,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D5" s="26" t="s">
         <v>57</v>
@@ -32245,7 +32244,7 @@
         <v>81</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E6" s="28" t="s">
         <v>58</v>
@@ -32257,11 +32256,11 @@
       <c r="H6" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="13"/>
+      <c r="I6" s="13" t="s">
+        <v>94</v>
+      </c>
       <c r="J6" s="13"/>
-      <c r="K6" s="20" t="s">
-        <v>94</v>
-      </c>
+      <c r="K6" s="20"/>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="48"/>
@@ -32270,10 +32269,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>62</v>
@@ -32296,10 +32295,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="48" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>62</v>
@@ -32365,11 +32364,11 @@
       <c r="H10" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="I10" s="20"/>
+      <c r="I10" s="20" t="s">
+        <v>94</v>
+      </c>
       <c r="J10" s="48"/>
-      <c r="K10" s="20" t="s">
-        <v>94</v>
-      </c>
+      <c r="K10" s="20"/>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="48"/>
@@ -32393,11 +32392,11 @@
       <c r="H11" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="20"/>
+      <c r="I11" s="20" t="s">
+        <v>94</v>
+      </c>
       <c r="J11" s="20"/>
-      <c r="K11" s="20" t="s">
-        <v>94</v>
-      </c>
+      <c r="K11" s="20"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="48"/>
@@ -32510,7 +32509,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
@@ -32534,7 +32533,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="53" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C1" s="53"/>
       <c r="D1" s="53"/>
@@ -32552,7 +32551,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="53" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C2" s="53"/>
       <c r="D2" s="53"/>
@@ -32622,7 +32621,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D5" s="26" t="s">
         <v>57</v>
@@ -32656,7 +32655,7 @@
         <v>81</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E6" s="28" t="s">
         <v>58</v>
@@ -32668,11 +32667,11 @@
       <c r="H6" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="13"/>
+      <c r="I6" s="13" t="s">
+        <v>94</v>
+      </c>
       <c r="J6" s="13"/>
-      <c r="K6" s="20" t="s">
-        <v>94</v>
-      </c>
+      <c r="K6" s="20"/>
       <c r="L6" s="48"/>
     </row>
     <row r="7" spans="1:12">
@@ -32682,13 +32681,13 @@
         <v>3</v>
       </c>
       <c r="C7" s="37" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D7" s="38" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E7" s="39" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F7" s="40">
         <v>1000</v>
@@ -32709,10 +32708,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E8" s="28" t="s">
         <v>58</v>
@@ -32724,11 +32723,11 @@
       <c r="H8" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="I8" s="26"/>
+      <c r="I8" s="26" t="s">
+        <v>94</v>
+      </c>
       <c r="J8" s="46"/>
-      <c r="K8" s="26" t="s">
-        <v>94</v>
-      </c>
+      <c r="K8" s="34"/>
       <c r="L8" s="48"/>
     </row>
     <row r="9" spans="1:12">
@@ -32738,13 +32737,13 @@
         <v>5</v>
       </c>
       <c r="C9" s="43" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E9" s="32" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F9" s="45"/>
       <c r="G9" s="20"/>
@@ -32761,10 +32760,10 @@
         <v>6</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E10" s="32" t="s">
         <v>41</v>
@@ -32781,7 +32780,7 @@
       <c r="I10" s="43"/>
       <c r="J10" s="26"/>
       <c r="K10" s="26" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L10" s="48"/>
     </row>
@@ -32838,11 +32837,11 @@
       <c r="H12" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="I12" s="20"/>
+      <c r="I12" s="20" t="s">
+        <v>94</v>
+      </c>
       <c r="J12" s="48"/>
-      <c r="K12" s="20" t="s">
-        <v>94</v>
-      </c>
+      <c r="K12" s="20"/>
       <c r="L12" s="48"/>
     </row>
     <row r="13" spans="1:12">
@@ -32867,11 +32866,11 @@
       <c r="H13" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="I13" s="20"/>
+      <c r="I13" s="20" t="s">
+        <v>94</v>
+      </c>
       <c r="J13" s="20"/>
-      <c r="K13" s="20" t="s">
-        <v>94</v>
-      </c>
+      <c r="K13" s="20"/>
       <c r="L13" s="48"/>
     </row>
     <row r="14" spans="1:12">

--- a/db/db-challenge2/データベース定義書.xlsx
+++ b/db/db-challenge2/データベース定義書.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23028"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{96C0C56F-5B68-44D8-878E-0031EB28CBB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B1BE376-A413-43BE-B0AD-7E38C44C7159}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11925" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -708,10 +708,10 @@
     <t>ファイル送信フラグ</t>
   </si>
   <si>
-    <t>is_file_transmission_permission</t>
+    <t>is_sendable</t>
   </si>
   <si>
-    <t>1:ファイル送信不可</t>
+    <t>1:ファイル送信可</t>
   </si>
   <si>
     <t>ダイレクトチャットフラグ</t>
@@ -31344,8 +31344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B03EB1C5-6F13-414B-8AF4-B4A35031AAB7}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
@@ -31544,7 +31544,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="18" t="s">
         <v>30</v>
